--- a/Wetspot/36807/matrix.xlsx
+++ b/Wetspot/36807/matrix.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Wetspot\36807\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F489E4C-3FA7-4401-8DEA-8E92A5F2C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7DA4D9-0089-4187-80EC-F07E78CC0617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1110" windowWidth="28905" windowHeight="18450" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
+    <workbookView xWindow="11490" yWindow="3195" windowWidth="26775" windowHeight="17745" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="142">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -53,6 +66,399 @@
   </si>
   <si>
     <t>Columns</t>
+  </si>
+  <si>
+    <t>site qa</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 51 - Ground Floor</t>
+  </si>
+  <si>
+    <t>ground floor</t>
+  </si>
+  <si>
+    <t>zone a (building b)</t>
+  </si>
+  <si>
+    <t>zone 51</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 52 - Lower Ground</t>
+  </si>
+  <si>
+    <t>zone 52</t>
+  </si>
+  <si>
+    <t>lower ground</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 53 - Lower Ground</t>
+  </si>
+  <si>
+    <t>zone 53</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 53 - Ground Floor</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 53 - Level 02</t>
+  </si>
+  <si>
+    <t>level 02</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 54 - Ground Floor</t>
+  </si>
+  <si>
+    <t>zone 54</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 55 - Basement 01</t>
+  </si>
+  <si>
+    <t>zone 55</t>
+  </si>
+  <si>
+    <t>basement 01</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Lower Ground</t>
+  </si>
+  <si>
+    <t>zone 56</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Ground Floor</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 01</t>
+  </si>
+  <si>
+    <t>level 01</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 02</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 03</t>
+  </si>
+  <si>
+    <t>level 03</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 04</t>
+  </si>
+  <si>
+    <t>level 04</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 05</t>
+  </si>
+  <si>
+    <t>level 05</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 06</t>
+  </si>
+  <si>
+    <t>level 06</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 07</t>
+  </si>
+  <si>
+    <t>level 07</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 08</t>
+  </si>
+  <si>
+    <t>level 08</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 09</t>
+  </si>
+  <si>
+    <t>level 09</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 56 - Level 10</t>
+  </si>
+  <si>
+    <t>level 10</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 57 - Level 01</t>
+  </si>
+  <si>
+    <t>zone 57</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 59 - Level 01</t>
+  </si>
+  <si>
+    <t>zone 59</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 60 - Lower Ground</t>
+  </si>
+  <si>
+    <t>zone 60</t>
+  </si>
+  <si>
+    <t>Zone A (Building B) - Zone 60 - Ground Floor</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 72 - Ground Floor</t>
+  </si>
+  <si>
+    <t>zone 72</t>
+  </si>
+  <si>
+    <t>zone b (building a)</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 72 - Level 01</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 74 - Lower Ground</t>
+  </si>
+  <si>
+    <t>zone 74</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 74 - Ground Floor</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 74 - Level 01</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 74 - Level 02</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 75 - Ground Floor</t>
+  </si>
+  <si>
+    <t>zone 75</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 75 - Level 01</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 75 - Level 02</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 75 - Level 03</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 75 - Level 04</t>
+  </si>
+  <si>
+    <t>Zone B (Building A) - Zone 76 - Level 02</t>
+  </si>
+  <si>
+    <t>zone 76</t>
+  </si>
+  <si>
+    <t>Zone C (Building C) - Zone 90 - Lower Ground Mezz</t>
+  </si>
+  <si>
+    <t>lower ground mezz</t>
+  </si>
+  <si>
+    <t>zone c (building c)</t>
+  </si>
+  <si>
+    <t>zone 90</t>
+  </si>
+  <si>
+    <t>Zone C (Building C) - Zone 90 - Ground Floor</t>
+  </si>
+  <si>
+    <t>Zone C (Building C) - Zone 91 - Ground Floor</t>
+  </si>
+  <si>
+    <t>zone 91</t>
+  </si>
+  <si>
+    <t>Zone C (Building C) - Zone 92 - Ground Floor</t>
+  </si>
+  <si>
+    <t>zone 92</t>
+  </si>
+  <si>
+    <t>Zone C (Building C) - Zone 93 - Ground Floor</t>
+  </si>
+  <si>
+    <t>zone 93</t>
+  </si>
+  <si>
+    <t>Zone C (Building D) - Zone 84 - Lower Ground Mezz</t>
+  </si>
+  <si>
+    <t>zone c (building d)</t>
+  </si>
+  <si>
+    <t>zone 84</t>
+  </si>
+  <si>
+    <t>Zone C (Building D) - Zone 84 - Ground Floor</t>
+  </si>
+  <si>
+    <t>Zone C (Building D) - Zone 84 - Level 01</t>
+  </si>
+  <si>
+    <t>Zone C (Building D) - Zone 84 - Level 02</t>
+  </si>
+  <si>
+    <t>Zone C (Building D) - Zone 84 - Level 03</t>
+  </si>
+  <si>
+    <t>Zone C (Building E) - Zone 08 - Lower Ground</t>
+  </si>
+  <si>
+    <t>zone c (building e)</t>
+  </si>
+  <si>
+    <t>zone 08</t>
+  </si>
+  <si>
+    <t>Zone C (Building E) - Zone 08 - Ground Floor</t>
+  </si>
+  <si>
+    <t>Zone C (Building E) - Zone 08 - Level 01</t>
+  </si>
+  <si>
+    <t>Zone C (Building E) - Zone 08 - Level 02</t>
+  </si>
+  <si>
+    <t>Zone C (Building E) - Zone 08 - Level 03</t>
+  </si>
+  <si>
+    <t>Zone C (Building E) - Zone 08 - Level 04</t>
+  </si>
+  <si>
+    <t>Internal Tiling</t>
+  </si>
+  <si>
+    <t>internal tiling</t>
+  </si>
+  <si>
+    <t>Internal Waterproofing</t>
+  </si>
+  <si>
+    <t>internal waterproofing</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces</t>
+  </si>
+  <si>
+    <t>Village Green</t>
+  </si>
+  <si>
+    <t>Building A</t>
+  </si>
+  <si>
+    <t>Site QA</t>
+  </si>
+  <si>
+    <t>Zone 00</t>
+  </si>
+  <si>
+    <t>Zone 09</t>
+  </si>
+  <si>
+    <t>Zone 10</t>
+  </si>
+  <si>
+    <t>Zone 11</t>
+  </si>
+  <si>
+    <t>Building B</t>
+  </si>
+  <si>
+    <t>Zone 01</t>
+  </si>
+  <si>
+    <t>Zone 02</t>
+  </si>
+  <si>
+    <t>Zone 04</t>
+  </si>
+  <si>
+    <t>Building D</t>
+  </si>
+  <si>
+    <t>Zone 0C</t>
+  </si>
+  <si>
+    <t>Zone 07</t>
+  </si>
+  <si>
+    <t>Building E</t>
+  </si>
+  <si>
+    <t>Zone 08</t>
+  </si>
+  <si>
+    <t>Zone 05</t>
+  </si>
+  <si>
+    <t>Zone 06</t>
+  </si>
+  <si>
+    <t>Village Green - Zone 01</t>
+  </si>
+  <si>
+    <t>Village Green - Zone 04</t>
+  </si>
+  <si>
+    <t>Village Green - Zone 05</t>
+  </si>
+  <si>
+    <t>Village Green - Zone 06</t>
+  </si>
+  <si>
+    <t>Village Green - Zone 07</t>
+  </si>
+  <si>
+    <t>Village Green - Zone 08</t>
+  </si>
+  <si>
+    <t>Village Green - Zone 09</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building A - Zone 00</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building A - Zone 09</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building A - Zone 10</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building A - Zone 11</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building B - Zone 00</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building B - Zone 01</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building B - Zone 02</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building B - Zone 04</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building D - Zone 0C</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building D - Zone 07</t>
+  </si>
+  <si>
+    <t>External Courtyards and Terraces - Building E - Zone 08</t>
   </si>
 </sst>
 </file>
@@ -913,21 +1319,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF041-A184-4873-A38F-D767E07AD295}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
-    <col min="6" max="6" width="48.85546875" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,29 +1353,1438 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" t="s">
+        <v>117</v>
+      </c>
+      <c r="H65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" t="s">
+        <v>117</v>
+      </c>
+      <c r="H66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" t="s">
+        <v>120</v>
+      </c>
+      <c r="H67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" t="s">
+        <v>106</v>
+      </c>
+      <c r="G73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
